--- a/artfynd/A 34293-2023.xlsx
+++ b/artfynd/A 34293-2023.xlsx
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111350516</v>
+        <v>111350031</v>
       </c>
       <c r="B3" t="n">
-        <v>89369</v>
+        <v>96251</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,34 +812,35 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5447</v>
+        <v>220093</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -847,13 +848,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>523319.7728949333</v>
+        <v>523281.2550886287</v>
       </c>
       <c r="R3" t="n">
-        <v>6619811.373445455</v>
+        <v>6619910.01413854</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -877,7 +878,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -887,7 +888,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -920,10 +921,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111350031</v>
+        <v>111350516</v>
       </c>
       <c r="B4" t="n">
-        <v>96251</v>
+        <v>89369</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -936,35 +937,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220093</v>
+        <v>5447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>523281.2550886287</v>
+        <v>523319.7728949333</v>
       </c>
       <c r="R4" t="n">
-        <v>6619910.01413854</v>
+        <v>6619811.373445455</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
